--- a/information/2025-10-28_Item_Information_Adults.xlsx
+++ b/information/2025-10-28_Item_Information_Adults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Wilken Arbeitsordner\Clinical_Backbone_RU5389\information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21391553-6B83-4B51-97F7-98EE7E6290C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E777E77-D197-40E5-9123-2F800D077BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31530" yWindow="2865" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="1401">
   <si>
     <t>Item</t>
   </si>
@@ -4225,6 +4225,9 @@
   </si>
   <si>
     <t>TICS</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -4630,7 +4633,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4668,6 +4671,9 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4688,11 +4694,17 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
+      <c r="B8" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4703,20 +4715,32 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">

--- a/information/2025-10-28_Item_Information_Adults.xlsx
+++ b/information/2025-10-28_Item_Information_Adults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Wilken Arbeitsordner\Clinical_Backbone_RU5389\information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E777E77-D197-40E5-9123-2F800D077BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F9F93C-892A-4380-ABC0-BCEA280358F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31530" yWindow="2865" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4632,8 +4632,8 @@
   <dimension ref="A1:E1325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A1130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4724,7 +4724,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">

--- a/information/2025-10-28_Item_Information_Adults.xlsx
+++ b/information/2025-10-28_Item_Information_Adults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Wilken Arbeitsordner\Clinical_Backbone_RU5389\information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F9F93C-892A-4380-ABC0-BCEA280358F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FE75C0-8A5F-4453-B948-DA1342B68479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="2865" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="1401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="1405">
   <si>
     <t>Item</t>
   </si>
@@ -4228,6 +4228,18 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>HiTOP-Subfactor</t>
+  </si>
+  <si>
+    <t>HiTOP-Spectrum</t>
+  </si>
+  <si>
+    <t>RDoC System</t>
+  </si>
+  <si>
+    <t>RDoC Construct</t>
   </si>
 </sst>
 </file>
@@ -4259,7 +4271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4282,13 +4294,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4629,11 +4655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1325"/>
+  <dimension ref="A1:I1325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4642,10 +4668,11 @@
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4658,16 +4685,28 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4675,22 +4714,22 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4698,7 +4737,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4706,12 +4745,12 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4719,7 +4758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4727,7 +4766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4735,7 +4774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4743,17 +4782,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -6532,7 +6571,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -6546,7 +6585,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -6560,7 +6599,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -6574,7 +6613,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -6588,7 +6627,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -6602,7 +6641,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -6616,7 +6655,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -6630,7 +6669,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -6644,7 +6683,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -6658,7 +6697,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -6672,7 +6711,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -6686,7 +6725,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -6700,7 +6739,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -6711,7 +6750,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -6722,7 +6761,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -6732,11 +6771,11 @@
       <c r="C159" t="s">
         <v>1381</v>
       </c>
-      <c r="E159" t="s">
+      <c r="I159" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -6746,11 +6785,11 @@
       <c r="C160" t="s">
         <v>1381</v>
       </c>
-      <c r="E160" t="s">
+      <c r="I160" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -6760,11 +6799,11 @@
       <c r="C161" t="s">
         <v>1381</v>
       </c>
-      <c r="E161" t="s">
+      <c r="I161" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -6774,11 +6813,11 @@
       <c r="C162" t="s">
         <v>1381</v>
       </c>
-      <c r="E162" t="s">
+      <c r="I162" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -6788,11 +6827,11 @@
       <c r="C163" t="s">
         <v>1381</v>
       </c>
-      <c r="E163" t="s">
+      <c r="I163" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -6802,11 +6841,11 @@
       <c r="C164" t="s">
         <v>1381</v>
       </c>
-      <c r="E164" t="s">
+      <c r="I164" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -6817,7 +6856,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -6828,7 +6867,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -6839,7 +6878,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -6850,7 +6889,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -6861,7 +6900,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -6872,7 +6911,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -6883,7 +6922,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -6894,7 +6933,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -6905,7 +6944,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -6916,7 +6955,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -6927,7 +6966,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -7114,7 +7153,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -7125,7 +7164,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -7136,7 +7175,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -7147,7 +7186,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -7158,7 +7197,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -7169,7 +7208,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -7180,7 +7219,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -7191,7 +7230,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -7202,7 +7241,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -7215,11 +7254,11 @@
       <c r="D201" t="s">
         <v>1333</v>
       </c>
-      <c r="E201" t="s">
+      <c r="I201" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -7233,7 +7272,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -7247,7 +7286,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -7261,7 +7300,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -7272,7 +7311,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -7286,7 +7325,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -7300,7 +7339,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -7314,7 +7353,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -7328,7 +7367,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -7339,7 +7378,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -7353,7 +7392,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -7367,7 +7406,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -7381,7 +7420,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -7395,7 +7434,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -7409,7 +7448,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -7420,7 +7459,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -7434,7 +7473,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -7448,7 +7487,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -7462,7 +7501,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -7476,7 +7515,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -7489,11 +7528,11 @@
       <c r="D221" t="s">
         <v>1333</v>
       </c>
-      <c r="E221" t="s">
+      <c r="I221" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -7507,7 +7546,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -7521,7 +7560,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -7708,7 +7747,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>243</v>
       </c>
@@ -7719,7 +7758,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>244</v>
       </c>
@@ -7730,7 +7769,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>245</v>
       </c>
@@ -7741,7 +7780,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>246</v>
       </c>
@@ -7752,7 +7791,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>247</v>
       </c>
@@ -7763,7 +7802,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>248</v>
       </c>
@@ -7774,7 +7813,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -7785,7 +7824,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>250</v>
       </c>
@@ -7796,7 +7835,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -7807,7 +7846,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -7818,7 +7857,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>253</v>
       </c>
@@ -7828,11 +7867,11 @@
       <c r="D251" t="s">
         <v>1390</v>
       </c>
-      <c r="E251" t="s">
+      <c r="I251" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -7843,7 +7882,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>255</v>
       </c>
@@ -7854,7 +7893,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -7865,7 +7904,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>257</v>
       </c>
@@ -7876,7 +7915,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -8036,7 +8075,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>275</v>
       </c>
@@ -8046,11 +8085,11 @@
       <c r="D273" t="s">
         <v>1370</v>
       </c>
-      <c r="E273" t="s">
+      <c r="I273" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>276</v>
       </c>
@@ -8061,7 +8100,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>277</v>
       </c>
@@ -8072,7 +8111,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -8082,11 +8121,11 @@
       <c r="D276" t="s">
         <v>1372</v>
       </c>
-      <c r="E276" t="s">
+      <c r="I276" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>279</v>
       </c>
@@ -8097,7 +8136,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>280</v>
       </c>
@@ -8107,11 +8146,11 @@
       <c r="D278" t="s">
         <v>1372</v>
       </c>
-      <c r="E278" t="s">
+      <c r="I278" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>281</v>
       </c>
@@ -8122,7 +8161,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>282</v>
       </c>
@@ -8133,7 +8172,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -8144,7 +8183,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -8155,7 +8194,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -8166,7 +8205,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>286</v>
       </c>
@@ -8176,11 +8215,11 @@
       <c r="D284" t="s">
         <v>1372</v>
       </c>
-      <c r="E284" t="s">
+      <c r="I284" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -8191,7 +8230,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>288</v>
       </c>
@@ -8202,7 +8241,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>289</v>
       </c>
@@ -8213,7 +8252,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>290</v>
       </c>
@@ -8224,7 +8263,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>291</v>
       </c>
@@ -8235,7 +8274,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>292</v>
       </c>
@@ -8245,11 +8284,11 @@
       <c r="D290" t="s">
         <v>1372</v>
       </c>
-      <c r="E290" t="s">
+      <c r="I290" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -8260,7 +8299,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>294</v>
       </c>
@@ -8271,7 +8310,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -8282,7 +8321,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -8293,7 +8332,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>297</v>
       </c>
@@ -8304,7 +8343,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>298</v>
       </c>
@@ -8315,7 +8354,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>299</v>
       </c>
@@ -8325,11 +8364,11 @@
       <c r="D297" t="s">
         <v>1370</v>
       </c>
-      <c r="E297" t="s">
+      <c r="I297" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>300</v>
       </c>
@@ -8340,7 +8379,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -8350,186 +8389,186 @@
       <c r="D299" t="s">
         <v>1372</v>
       </c>
-      <c r="E299" t="s">
+      <c r="I299" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="s">
         <v>1338</v>
       </c>
-      <c r="E301" t="s">
+      <c r="I301" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>304</v>
       </c>
       <c r="B302" t="s">
         <v>1338</v>
       </c>
-      <c r="E302" t="s">
+      <c r="I302" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="s">
         <v>1338</v>
       </c>
-      <c r="E303" t="s">
+      <c r="I303" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>307</v>
       </c>
       <c r="B305" t="s">
         <v>1338</v>
       </c>
-      <c r="E305" t="s">
+      <c r="I305" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>308</v>
       </c>
       <c r="B306" t="s">
         <v>1338</v>
       </c>
-      <c r="E306" t="s">
+      <c r="I306" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>309</v>
       </c>
       <c r="B307" t="s">
         <v>1338</v>
       </c>
-      <c r="E307" t="s">
+      <c r="I307" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>310</v>
       </c>
       <c r="B308" t="s">
         <v>1338</v>
       </c>
-      <c r="E308" t="s">
+      <c r="I308" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>311</v>
       </c>
       <c r="B309" t="s">
         <v>1338</v>
       </c>
-      <c r="E309" t="s">
+      <c r="I309" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>312</v>
       </c>
       <c r="B310" t="s">
         <v>1338</v>
       </c>
-      <c r="E310" t="s">
+      <c r="I310" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>313</v>
       </c>
       <c r="B311" t="s">
         <v>1338</v>
       </c>
-      <c r="E311" t="s">
+      <c r="I311" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>314</v>
       </c>
       <c r="B312" t="s">
         <v>1338</v>
       </c>
-      <c r="E312" t="s">
+      <c r="I312" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>315</v>
       </c>
       <c r="B313" t="s">
         <v>1338</v>
       </c>
-      <c r="E313" t="s">
+      <c r="I313" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>316</v>
       </c>
       <c r="B314" t="s">
         <v>1338</v>
       </c>
-      <c r="E314" t="s">
+      <c r="I314" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>317</v>
       </c>
       <c r="B315" t="s">
         <v>1338</v>
       </c>
-      <c r="E315" t="s">
+      <c r="I315" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>318</v>
       </c>
       <c r="B316" t="s">
         <v>1338</v>
       </c>
-      <c r="E316" t="s">
+      <c r="I316" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>319</v>
       </c>
@@ -8537,7 +8576,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -8545,7 +8584,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>321</v>
       </c>
@@ -8553,7 +8592,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>322</v>
       </c>

--- a/information/2025-10-28_Item_Information_Adults.xlsx
+++ b/information/2025-10-28_Item_Information_Adults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Wilken Arbeitsordner\Clinical_Backbone_RU5389\information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FE75C0-8A5F-4453-B948-DA1342B68479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2D0E4B-3529-4BAD-A785-8A58DD0FF264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="1428">
   <si>
     <t>Item</t>
   </si>
@@ -4240,6 +4240,75 @@
   </si>
   <si>
     <t>RDoC Construct</t>
+  </si>
+  <si>
+    <t>internalizing</t>
+  </si>
+  <si>
+    <t>thought_disorder</t>
+  </si>
+  <si>
+    <t>HiTOP-Superspectrum</t>
+  </si>
+  <si>
+    <t>emot_dys</t>
+  </si>
+  <si>
+    <t>psychosis</t>
+  </si>
+  <si>
+    <t>substance_abuse</t>
+  </si>
+  <si>
+    <t>disinh_externalizing</t>
+  </si>
+  <si>
+    <t>externalizing</t>
+  </si>
+  <si>
+    <t>positive_valence</t>
+  </si>
+  <si>
+    <t>negative_valence</t>
+  </si>
+  <si>
+    <t>arousal_regulatory</t>
+  </si>
+  <si>
+    <t>distress-dysphoria</t>
+  </si>
+  <si>
+    <t>HiTOP-Subscale</t>
+  </si>
+  <si>
+    <t>binge_eating</t>
+  </si>
+  <si>
+    <t>trauma_reactions</t>
+  </si>
+  <si>
+    <t>spec_phobia_ind</t>
+  </si>
+  <si>
+    <t>internaliz-thought_dis</t>
+  </si>
+  <si>
+    <t>manic_energy</t>
+  </si>
+  <si>
+    <t>detachment</t>
+  </si>
+  <si>
+    <t>social_anxiety</t>
+  </si>
+  <si>
+    <t>emot_dys-psychosis</t>
+  </si>
+  <si>
+    <t>antisocial</t>
+  </si>
+  <si>
+    <t>disinh_antisoc_extern</t>
   </si>
 </sst>
 </file>
@@ -4655,11 +4724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1325"/>
+  <dimension ref="A1:K1325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F199" sqref="F195:F199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4668,11 +4737,11 @@
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4686,27 +4755,33 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4714,22 +4789,22 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4737,7 +4812,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4745,12 +4820,12 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4758,7 +4833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4766,7 +4841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4774,7 +4849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4782,32 +4857,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -4820,8 +4895,17 @@
       <c r="D19" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -4834,8 +4918,17 @@
       <c r="D20" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4848,8 +4941,14 @@
       <c r="D21" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -4862,8 +4961,17 @@
       <c r="D22" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -4876,8 +4984,17 @@
       <c r="D23" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -4890,8 +5007,17 @@
       <c r="D24" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -4904,8 +5030,17 @@
       <c r="D25" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -4918,8 +5053,17 @@
       <c r="D26" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -4932,8 +5076,17 @@
       <c r="D27" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -4946,8 +5099,14 @@
       <c r="D28" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4960,8 +5119,17 @@
       <c r="D29" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -4974,8 +5142,14 @@
       <c r="D30" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4988,8 +5162,17 @@
       <c r="D31" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -5002,8 +5185,17 @@
       <c r="D32" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -5016,8 +5208,17 @@
       <c r="D33" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -5030,8 +5231,17 @@
       <c r="D34" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -5044,8 +5254,17 @@
       <c r="D35" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -5058,8 +5277,14 @@
       <c r="D36" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -5072,8 +5297,17 @@
       <c r="D37" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -5086,8 +5320,17 @@
       <c r="D38" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -5100,8 +5343,17 @@
       <c r="D39" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -5114,8 +5366,14 @@
       <c r="D40" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -5128,8 +5386,14 @@
       <c r="D41" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -5142,8 +5406,14 @@
       <c r="D42" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -5156,8 +5426,14 @@
       <c r="D43" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -5170,8 +5446,14 @@
       <c r="D44" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -5184,8 +5466,14 @@
       <c r="D45" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -5198,8 +5486,14 @@
       <c r="D46" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -5212,8 +5506,14 @@
       <c r="D47" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5226,8 +5526,14 @@
       <c r="D48" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5240,8 +5546,17 @@
       <c r="D49" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -5254,8 +5569,14 @@
       <c r="D50" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -5268,8 +5589,14 @@
       <c r="D51" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -5282,8 +5609,14 @@
       <c r="D52" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -5296,8 +5629,14 @@
       <c r="D53" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -5310,8 +5649,14 @@
       <c r="D54" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -5324,8 +5669,14 @@
       <c r="D55" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -5338,8 +5689,14 @@
       <c r="D56" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -5352,8 +5709,17 @@
       <c r="D57" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -5366,8 +5732,17 @@
       <c r="D58" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -5380,8 +5755,14 @@
       <c r="D59" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -5394,8 +5775,14 @@
       <c r="D60" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -5408,8 +5795,14 @@
       <c r="D61" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -5422,8 +5815,14 @@
       <c r="D62" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -5436,8 +5835,14 @@
       <c r="D63" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -5450,8 +5855,17 @@
       <c r="D64" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -5464,8 +5878,17 @@
       <c r="D65" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -5478,8 +5901,14 @@
       <c r="D66" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -5492,8 +5921,14 @@
       <c r="D67" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -5506,8 +5941,14 @@
       <c r="D68" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -5520,8 +5961,14 @@
       <c r="D69" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -5534,8 +5981,14 @@
       <c r="D70" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -5548,8 +6001,14 @@
       <c r="D71" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -5562,8 +6021,14 @@
       <c r="D72" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -5576,8 +6041,14 @@
       <c r="D73" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -5590,8 +6061,17 @@
       <c r="D74" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -5604,8 +6084,14 @@
       <c r="D75" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -5618,8 +6104,14 @@
       <c r="D76" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -5632,8 +6124,14 @@
       <c r="D77" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -5646,8 +6144,14 @@
       <c r="D78" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -5660,8 +6164,14 @@
       <c r="D79" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -5674,8 +6184,14 @@
       <c r="D80" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -5688,8 +6204,14 @@
       <c r="D81" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -5702,8 +6224,14 @@
       <c r="D82" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -5716,8 +6244,17 @@
       <c r="D83" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -5730,8 +6267,17 @@
       <c r="D84" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -5744,8 +6290,17 @@
       <c r="D85" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -5758,8 +6313,14 @@
       <c r="D86" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -5772,8 +6333,14 @@
       <c r="D87" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -5786,8 +6353,14 @@
       <c r="D88" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -5800,8 +6373,14 @@
       <c r="D89" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -5814,8 +6393,14 @@
       <c r="D90" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -5828,8 +6413,14 @@
       <c r="D91" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -5842,8 +6433,14 @@
       <c r="D92" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -5856,8 +6453,14 @@
       <c r="D93" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -5870,8 +6473,17 @@
       <c r="D94" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -5884,8 +6496,14 @@
       <c r="D95" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -5898,8 +6516,14 @@
       <c r="D96" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -5912,8 +6536,14 @@
       <c r="D97" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -5926,8 +6556,14 @@
       <c r="D98" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -5940,8 +6576,14 @@
       <c r="D99" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -5954,8 +6596,17 @@
       <c r="D100" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -5968,8 +6619,14 @@
       <c r="D101" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -5982,8 +6639,14 @@
       <c r="D102" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -5996,8 +6659,14 @@
       <c r="D103" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -6010,8 +6679,17 @@
       <c r="D104" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -6024,8 +6702,14 @@
       <c r="D105" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -6038,8 +6722,14 @@
       <c r="D106" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -6052,8 +6742,14 @@
       <c r="D107" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -6066,8 +6762,14 @@
       <c r="D108" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -6080,8 +6782,14 @@
       <c r="D109" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -6094,8 +6802,14 @@
       <c r="D110" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -6108,8 +6822,14 @@
       <c r="D111" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -6122,8 +6842,14 @@
       <c r="D112" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -6136,8 +6862,14 @@
       <c r="D113" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -6150,8 +6882,14 @@
       <c r="D114" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -6164,8 +6902,14 @@
       <c r="D115" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -6178,8 +6922,17 @@
       <c r="D116" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -6192,8 +6945,14 @@
       <c r="D117" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -6206,8 +6965,14 @@
       <c r="D118" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -6220,8 +6985,14 @@
       <c r="D119" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -6234,8 +7005,14 @@
       <c r="D120" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -6248,8 +7025,14 @@
       <c r="D121" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -6262,8 +7045,14 @@
       <c r="D122" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -6276,8 +7065,14 @@
       <c r="D123" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -6290,8 +7085,14 @@
       <c r="D124" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -6304,8 +7105,14 @@
       <c r="D125" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -6318,8 +7125,14 @@
       <c r="D126" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -6332,8 +7145,14 @@
       <c r="D127" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -6346,8 +7165,14 @@
       <c r="D128" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -6360,8 +7185,14 @@
       <c r="D129" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -6374,8 +7205,14 @@
       <c r="D130" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -6388,8 +7225,14 @@
       <c r="D131" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -6402,8 +7245,14 @@
       <c r="D132" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -6416,8 +7265,14 @@
       <c r="D133" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -6430,8 +7285,14 @@
       <c r="D134" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -6444,8 +7305,14 @@
       <c r="D135" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -6458,8 +7325,14 @@
       <c r="D136" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -6472,8 +7345,14 @@
       <c r="D137" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -6486,8 +7365,14 @@
       <c r="D138" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -6500,8 +7385,14 @@
       <c r="D139" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -6514,8 +7405,14 @@
       <c r="D140" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -6528,8 +7425,14 @@
       <c r="D141" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -6542,8 +7445,14 @@
       <c r="D142" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -6556,8 +7465,14 @@
       <c r="D143" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -6570,8 +7485,14 @@
       <c r="D144" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -6584,8 +7505,14 @@
       <c r="D145" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -6598,8 +7525,14 @@
       <c r="D146" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -6612,8 +7545,14 @@
       <c r="D147" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -6626,8 +7565,14 @@
       <c r="D148" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -6640,8 +7585,14 @@
       <c r="D149" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -6654,8 +7605,14 @@
       <c r="D150" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -6668,8 +7625,14 @@
       <c r="D151" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -6682,8 +7645,14 @@
       <c r="D152" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -6696,8 +7665,14 @@
       <c r="D153" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -6710,8 +7685,14 @@
       <c r="D154" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -6724,8 +7705,14 @@
       <c r="D155" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -6738,8 +7725,14 @@
       <c r="D156" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -6750,7 +7743,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -6761,7 +7754,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -6771,11 +7764,11 @@
       <c r="C159" t="s">
         <v>1381</v>
       </c>
-      <c r="I159" t="s">
+      <c r="K159" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -6785,11 +7778,11 @@
       <c r="C160" t="s">
         <v>1381</v>
       </c>
-      <c r="I160" t="s">
+      <c r="K160" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -6799,11 +7792,11 @@
       <c r="C161" t="s">
         <v>1381</v>
       </c>
-      <c r="I161" t="s">
+      <c r="K161" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -6813,11 +7806,11 @@
       <c r="C162" t="s">
         <v>1381</v>
       </c>
-      <c r="I162" t="s">
+      <c r="K162" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -6827,11 +7820,11 @@
       <c r="C163" t="s">
         <v>1381</v>
       </c>
-      <c r="I163" t="s">
+      <c r="K163" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -6841,11 +7834,11 @@
       <c r="C164" t="s">
         <v>1381</v>
       </c>
-      <c r="I164" t="s">
+      <c r="K164" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -6856,7 +7849,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -6867,7 +7860,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -6877,8 +7870,17 @@
       <c r="D167" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -6888,8 +7890,17 @@
       <c r="D168" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -6899,8 +7910,17 @@
       <c r="D169" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -6910,8 +7930,17 @@
       <c r="D170" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -6921,8 +7950,17 @@
       <c r="D171" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -6932,8 +7970,17 @@
       <c r="D172" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -6943,8 +7990,17 @@
       <c r="D173" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -6954,8 +8010,17 @@
       <c r="D174" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -6965,8 +8030,17 @@
       <c r="D175" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -6976,8 +8050,17 @@
       <c r="D176" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -6987,8 +8070,17 @@
       <c r="D177" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -6998,8 +8090,17 @@
       <c r="D178" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -7009,8 +8110,17 @@
       <c r="D179" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -7020,8 +8130,17 @@
       <c r="D180" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -7031,8 +8150,17 @@
       <c r="D181" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -7042,8 +8170,17 @@
       <c r="D182" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -7053,8 +8190,17 @@
       <c r="D183" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -7064,8 +8210,17 @@
       <c r="D184" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -7075,8 +8230,17 @@
       <c r="D185" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -7086,8 +8250,17 @@
       <c r="D186" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -7097,8 +8270,17 @@
       <c r="D187" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -7108,8 +8290,17 @@
       <c r="D188" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -7119,8 +8310,17 @@
       <c r="D189" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -7130,8 +8330,17 @@
       <c r="D190" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -7141,8 +8350,17 @@
       <c r="D191" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -7152,8 +8370,17 @@
       <c r="D192" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -7163,8 +8390,17 @@
       <c r="D193" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -7174,8 +8410,17 @@
       <c r="C194" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -7185,8 +8430,17 @@
       <c r="C195" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -7196,8 +8450,17 @@
       <c r="C196" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -7207,8 +8470,17 @@
       <c r="C197" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -7218,8 +8490,17 @@
       <c r="C198" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -7229,8 +8510,17 @@
       <c r="C199" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -7240,8 +8530,11 @@
       <c r="D200" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I200" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -7255,10 +8548,13 @@
         <v>1333</v>
       </c>
       <c r="I201" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K201" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -7271,8 +8567,11 @@
       <c r="D202" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I202" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -7285,8 +8584,11 @@
       <c r="D203" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I203" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -7299,8 +8601,11 @@
       <c r="D204" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I204" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -7310,8 +8615,11 @@
       <c r="D205" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I205" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -7324,8 +8632,11 @@
       <c r="D206" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I206" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -7338,8 +8649,11 @@
       <c r="D207" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I207" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -7352,8 +8666,11 @@
       <c r="D208" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I208" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -7366,8 +8683,11 @@
       <c r="D209" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I209" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -7377,8 +8697,11 @@
       <c r="D210" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I210" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -7391,8 +8714,11 @@
       <c r="D211" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I211" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -7405,8 +8731,11 @@
       <c r="D212" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I212" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -7419,8 +8748,11 @@
       <c r="D213" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I213" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -7433,8 +8765,11 @@
       <c r="D214" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I214" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -7447,8 +8782,11 @@
       <c r="D215" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I215" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -7458,8 +8796,11 @@
       <c r="D216" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I216" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -7472,8 +8813,11 @@
       <c r="D217" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I217" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -7486,8 +8830,11 @@
       <c r="D218" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I218" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -7500,8 +8847,11 @@
       <c r="D219" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I219" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -7514,8 +8864,11 @@
       <c r="D220" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I220" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -7529,10 +8882,13 @@
         <v>1333</v>
       </c>
       <c r="I221" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K221" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -7545,8 +8901,11 @@
       <c r="D222" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I222" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -7559,8 +8918,11 @@
       <c r="D223" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I223" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -7570,8 +8932,11 @@
       <c r="D224" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I224" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -7581,8 +8946,11 @@
       <c r="D225" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I225" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -7592,8 +8960,11 @@
       <c r="D226" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I226" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -7603,8 +8974,11 @@
       <c r="D227" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I227" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -7614,8 +8988,11 @@
       <c r="D228" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I228" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>231</v>
       </c>
@@ -7625,8 +9002,11 @@
       <c r="D229" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I229" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -7636,8 +9016,11 @@
       <c r="D230" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I230" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>233</v>
       </c>
@@ -7647,8 +9030,11 @@
       <c r="D231" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I231" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>234</v>
       </c>
@@ -7658,8 +9044,11 @@
       <c r="D232" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I232" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -7669,8 +9058,11 @@
       <c r="D233" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I233" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -7680,8 +9072,11 @@
       <c r="D234" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I234" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>237</v>
       </c>
@@ -7691,8 +9086,11 @@
       <c r="D235" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I235" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>238</v>
       </c>
@@ -7702,8 +9100,11 @@
       <c r="D236" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I236" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -7713,8 +9114,11 @@
       <c r="D237" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I237" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -7724,8 +9128,11 @@
       <c r="D238" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I238" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>241</v>
       </c>
@@ -7735,8 +9142,11 @@
       <c r="D239" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I239" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>242</v>
       </c>
@@ -7746,8 +9156,11 @@
       <c r="D240" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I240" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>243</v>
       </c>
@@ -7757,8 +9170,11 @@
       <c r="D241" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I241" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>244</v>
       </c>
@@ -7768,8 +9184,11 @@
       <c r="D242" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I242" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>245</v>
       </c>
@@ -7779,8 +9198,11 @@
       <c r="D243" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I243" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>246</v>
       </c>
@@ -7790,8 +9212,11 @@
       <c r="D244" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I244" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>247</v>
       </c>
@@ -7801,8 +9226,11 @@
       <c r="D245" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I245" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>248</v>
       </c>
@@ -7812,8 +9240,11 @@
       <c r="D246" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I246" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -7823,8 +9254,11 @@
       <c r="D247" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I247" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>250</v>
       </c>
@@ -7834,8 +9268,11 @@
       <c r="D248" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I248" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -7845,8 +9282,11 @@
       <c r="D249" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I249" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -7856,8 +9296,11 @@
       <c r="D250" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I250" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>253</v>
       </c>
@@ -7868,10 +9311,13 @@
         <v>1390</v>
       </c>
       <c r="I251" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K251" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -7881,8 +9327,11 @@
       <c r="D252" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I252" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>255</v>
       </c>
@@ -7892,8 +9341,11 @@
       <c r="D253" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I253" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -7903,8 +9355,11 @@
       <c r="D254" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I254" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>257</v>
       </c>
@@ -7914,8 +9369,11 @@
       <c r="D255" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I255" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -7925,8 +9383,11 @@
       <c r="D256" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I256" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>259</v>
       </c>
@@ -7936,8 +9397,11 @@
       <c r="D257" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I257" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>260</v>
       </c>
@@ -7947,8 +9411,11 @@
       <c r="D258" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I258" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>261</v>
       </c>
@@ -7958,8 +9425,11 @@
       <c r="D259" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I259" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>262</v>
       </c>
@@ -7969,8 +9439,11 @@
       <c r="D260" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I260" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -7980,8 +9453,11 @@
       <c r="D261" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I261" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -7991,8 +9467,11 @@
       <c r="D262" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I262" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>265</v>
       </c>
@@ -8000,7 +9479,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -8008,7 +9487,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>267</v>
       </c>
@@ -8016,7 +9495,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>268</v>
       </c>
@@ -8024,7 +9503,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>269</v>
       </c>
@@ -8032,7 +9511,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -8040,7 +9519,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>271</v>
       </c>
@@ -8048,7 +9527,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>272</v>
       </c>
@@ -8056,7 +9535,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>273</v>
       </c>
@@ -8064,7 +9543,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>274</v>
       </c>
@@ -8074,8 +9553,11 @@
       <c r="D272" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I272" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>275</v>
       </c>
@@ -8086,10 +9568,13 @@
         <v>1370</v>
       </c>
       <c r="I273" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K273" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>276</v>
       </c>
@@ -8099,8 +9584,11 @@
       <c r="D274" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I274" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>277</v>
       </c>
@@ -8110,8 +9598,11 @@
       <c r="D275" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I275" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -8122,10 +9613,13 @@
         <v>1372</v>
       </c>
       <c r="I276" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K276" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>279</v>
       </c>
@@ -8135,8 +9629,11 @@
       <c r="D277" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I277" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>280</v>
       </c>
@@ -8147,10 +9644,13 @@
         <v>1372</v>
       </c>
       <c r="I278" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K278" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>281</v>
       </c>
@@ -8160,8 +9660,11 @@
       <c r="D279" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I279" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>282</v>
       </c>
@@ -8171,8 +9674,11 @@
       <c r="D280" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I280" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -8182,8 +9688,11 @@
       <c r="D281" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I281" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -8193,8 +9702,11 @@
       <c r="D282" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I282" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -8204,8 +9716,11 @@
       <c r="D283" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I283" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>286</v>
       </c>
@@ -8216,10 +9731,13 @@
         <v>1372</v>
       </c>
       <c r="I284" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K284" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -8229,8 +9747,11 @@
       <c r="D285" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I285" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>288</v>
       </c>
@@ -8240,8 +9761,11 @@
       <c r="D286" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I286" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>289</v>
       </c>
@@ -8251,8 +9775,11 @@
       <c r="D287" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I287" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>290</v>
       </c>
@@ -8262,8 +9789,11 @@
       <c r="D288" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I288" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>291</v>
       </c>
@@ -8273,8 +9803,11 @@
       <c r="D289" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I289" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>292</v>
       </c>
@@ -8285,10 +9818,13 @@
         <v>1372</v>
       </c>
       <c r="I290" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K290" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -8298,8 +9834,11 @@
       <c r="D291" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I291" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>294</v>
       </c>
@@ -8309,8 +9848,11 @@
       <c r="D292" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I292" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -8320,8 +9862,11 @@
       <c r="D293" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I293" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -8331,8 +9876,11 @@
       <c r="D294" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I294" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>297</v>
       </c>
@@ -8342,8 +9890,11 @@
       <c r="D295" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I295" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>298</v>
       </c>
@@ -8353,8 +9904,11 @@
       <c r="D296" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I296" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>299</v>
       </c>
@@ -8365,10 +9919,13 @@
         <v>1370</v>
       </c>
       <c r="I297" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K297" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>300</v>
       </c>
@@ -8378,8 +9935,11 @@
       <c r="D298" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I298" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -8390,185 +9950,188 @@
         <v>1372</v>
       </c>
       <c r="I299" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K299" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="s">
         <v>1338</v>
       </c>
-      <c r="I301" t="s">
+      <c r="K301" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>304</v>
       </c>
       <c r="B302" t="s">
         <v>1338</v>
       </c>
-      <c r="I302" t="s">
+      <c r="K302" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="s">
         <v>1338</v>
       </c>
-      <c r="I303" t="s">
+      <c r="K303" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>307</v>
       </c>
       <c r="B305" t="s">
         <v>1338</v>
       </c>
-      <c r="I305" t="s">
+      <c r="K305" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>308</v>
       </c>
       <c r="B306" t="s">
         <v>1338</v>
       </c>
-      <c r="I306" t="s">
+      <c r="K306" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>309</v>
       </c>
       <c r="B307" t="s">
         <v>1338</v>
       </c>
-      <c r="I307" t="s">
+      <c r="K307" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>310</v>
       </c>
       <c r="B308" t="s">
         <v>1338</v>
       </c>
-      <c r="I308" t="s">
+      <c r="K308" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>311</v>
       </c>
       <c r="B309" t="s">
         <v>1338</v>
       </c>
-      <c r="I309" t="s">
+      <c r="K309" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>312</v>
       </c>
       <c r="B310" t="s">
         <v>1338</v>
       </c>
-      <c r="I310" t="s">
+      <c r="K310" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>313</v>
       </c>
       <c r="B311" t="s">
         <v>1338</v>
       </c>
-      <c r="I311" t="s">
+      <c r="K311" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>314</v>
       </c>
       <c r="B312" t="s">
         <v>1338</v>
       </c>
-      <c r="I312" t="s">
+      <c r="K312" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>315</v>
       </c>
       <c r="B313" t="s">
         <v>1338</v>
       </c>
-      <c r="I313" t="s">
+      <c r="K313" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>316</v>
       </c>
       <c r="B314" t="s">
         <v>1338</v>
       </c>
-      <c r="I314" t="s">
+      <c r="K314" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>317</v>
       </c>
       <c r="B315" t="s">
         <v>1338</v>
       </c>
-      <c r="I315" t="s">
+      <c r="K315" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>318</v>
       </c>
       <c r="B316" t="s">
         <v>1338</v>
       </c>
-      <c r="I316" t="s">
+      <c r="K316" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>319</v>
       </c>
@@ -8576,7 +10139,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -8584,7 +10147,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>321</v>
       </c>
@@ -8592,7 +10155,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>322</v>
       </c>

--- a/information/2025-10-28_Item_Information_Adults.xlsx
+++ b/information/2025-10-28_Item_Information_Adults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Wilken Arbeitsordner\Clinical_Backbone_RU5389\information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2D0E4B-3529-4BAD-A785-8A58DD0FF264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32CEE98-2D6C-4A33-986E-CB08C3CC91CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="1432">
   <si>
     <t>Item</t>
   </si>
@@ -4287,9 +4287,6 @@
     <t>trauma_reactions</t>
   </si>
   <si>
-    <t>spec_phobia_ind</t>
-  </si>
-  <si>
     <t>internaliz-thought_dis</t>
   </si>
   <si>
@@ -4309,6 +4306,21 @@
   </si>
   <si>
     <t>disinh_antisoc_extern</t>
+  </si>
+  <si>
+    <t>eating_pathology</t>
+  </si>
+  <si>
+    <t>well-being</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>binge-eating</t>
+  </si>
+  <si>
+    <t>emotionality</t>
   </si>
 </sst>
 </file>
@@ -4727,8 +4739,8 @@
   <dimension ref="A1:K1325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F199" sqref="F195:F199"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,17 +4884,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -4902,10 +4914,13 @@
         <v>1405</v>
       </c>
       <c r="G19" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H19" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -4925,10 +4940,13 @@
         <v>1405</v>
       </c>
       <c r="G20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H20" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4945,10 +4963,16 @@
         <v>1408</v>
       </c>
       <c r="F21" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -4968,10 +4992,13 @@
         <v>1405</v>
       </c>
       <c r="G22" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H22" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -4991,10 +5018,13 @@
         <v>1405</v>
       </c>
       <c r="G23" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H23" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -5013,11 +5043,11 @@
       <c r="F24" t="s">
         <v>1405</v>
       </c>
-      <c r="H24" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -5037,10 +5067,13 @@
         <v>1405</v>
       </c>
       <c r="G25" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H25" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -5063,7 +5096,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -5086,7 +5119,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -5103,10 +5136,16 @@
         <v>1408</v>
       </c>
       <c r="F28" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -5126,10 +5165,13 @@
         <v>1405</v>
       </c>
       <c r="G29" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H29" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -5148,8 +5190,11 @@
       <c r="F30" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -5169,10 +5214,13 @@
         <v>1405</v>
       </c>
       <c r="G31" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H31" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -5192,10 +5240,13 @@
         <v>1405</v>
       </c>
       <c r="G32" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H32" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -5212,13 +5263,13 @@
         <v>1409</v>
       </c>
       <c r="F33" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H33" t="s">
         <v>1423</v>
       </c>
-      <c r="G33" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -5238,10 +5289,13 @@
         <v>1405</v>
       </c>
       <c r="G34" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H34" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -5261,10 +5315,13 @@
         <v>1405</v>
       </c>
       <c r="G35" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H35" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -5281,10 +5338,13 @@
         <v>1408</v>
       </c>
       <c r="F36" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -5304,10 +5364,13 @@
         <v>1405</v>
       </c>
       <c r="G37" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H37" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -5324,13 +5387,13 @@
         <v>1409</v>
       </c>
       <c r="F38" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H38" t="s">
         <v>1423</v>
       </c>
-      <c r="G38" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -5353,7 +5416,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -5372,8 +5435,14 @@
       <c r="F40" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -5390,10 +5459,16 @@
         <v>1408</v>
       </c>
       <c r="F41" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -5412,8 +5487,14 @@
       <c r="F42" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -5432,8 +5513,14 @@
       <c r="F43" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -5452,8 +5539,14 @@
       <c r="F44" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -5470,10 +5563,16 @@
         <v>1408</v>
       </c>
       <c r="F45" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -5492,8 +5591,14 @@
       <c r="F46" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -5512,8 +5617,11 @@
       <c r="F47" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5532,8 +5640,11 @@
       <c r="F48" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5556,7 +5667,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -5575,8 +5686,14 @@
       <c r="F50" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -5595,8 +5712,14 @@
       <c r="F51" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -5615,8 +5738,14 @@
       <c r="F52" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -5635,8 +5764,11 @@
       <c r="F53" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -5655,8 +5787,14 @@
       <c r="F54" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -5675,8 +5813,14 @@
       <c r="F55" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -5695,8 +5839,14 @@
       <c r="F56" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -5719,7 +5869,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -5736,13 +5886,13 @@
         <v>1409</v>
       </c>
       <c r="F58" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H58" t="s">
         <v>1423</v>
       </c>
-      <c r="G58" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -5761,8 +5911,14 @@
       <c r="F59" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -5781,8 +5937,11 @@
       <c r="F60" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -5801,8 +5960,11 @@
       <c r="F61" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -5821,8 +5983,14 @@
       <c r="F62" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -5841,8 +6009,14 @@
       <c r="F63" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -5859,13 +6033,13 @@
         <v>1409</v>
       </c>
       <c r="F64" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H64" t="s">
         <v>1423</v>
       </c>
-      <c r="G64" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -5888,7 +6062,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -5907,8 +6081,14 @@
       <c r="F66" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -5925,10 +6105,16 @@
         <v>1408</v>
       </c>
       <c r="F67" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -5947,8 +6133,14 @@
       <c r="F68" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -5967,8 +6159,14 @@
       <c r="F69" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -5985,10 +6183,16 @@
         <v>1408</v>
       </c>
       <c r="F70" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -6007,8 +6211,11 @@
       <c r="F71" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -6027,8 +6234,11 @@
       <c r="F72" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -6047,8 +6257,14 @@
       <c r="F73" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -6071,7 +6287,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -6090,8 +6306,14 @@
       <c r="F75" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -6108,10 +6330,16 @@
         <v>1408</v>
       </c>
       <c r="F76" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -6130,8 +6358,14 @@
       <c r="F77" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -6150,8 +6384,11 @@
       <c r="F78" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -6170,8 +6407,11 @@
       <c r="F79" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -6190,8 +6430,14 @@
       <c r="F80" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -6208,10 +6454,16 @@
         <v>1408</v>
       </c>
       <c r="F81" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -6230,8 +6482,14 @@
       <c r="F82" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -6251,10 +6509,13 @@
         <v>1405</v>
       </c>
       <c r="G83" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H83" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -6268,16 +6529,19 @@
         <v>1352</v>
       </c>
       <c r="E84" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F84" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H84" t="s">
         <v>1421</v>
       </c>
-      <c r="G84" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -6297,10 +6561,13 @@
         <v>1405</v>
       </c>
       <c r="G85" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H85" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -6319,8 +6586,14 @@
       <c r="F86" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -6339,8 +6612,14 @@
       <c r="F87" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -6357,10 +6636,16 @@
         <v>1408</v>
       </c>
       <c r="F88" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1420</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -6377,10 +6662,16 @@
         <v>1408</v>
       </c>
       <c r="F89" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -6399,8 +6690,14 @@
       <c r="F90" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -6419,8 +6716,11 @@
       <c r="F91" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -6439,8 +6739,14 @@
       <c r="F92" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -6459,8 +6765,14 @@
       <c r="F93" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -6474,16 +6786,19 @@
         <v>1352</v>
       </c>
       <c r="E94" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F94" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H94" t="s">
         <v>1421</v>
       </c>
-      <c r="G94" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -6500,10 +6815,16 @@
         <v>1408</v>
       </c>
       <c r="F95" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -6522,8 +6843,14 @@
       <c r="F96" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -6542,8 +6869,11 @@
       <c r="F97" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -6562,8 +6892,14 @@
       <c r="F98" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -6582,8 +6918,14 @@
       <c r="F99" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -6597,16 +6939,19 @@
         <v>1352</v>
       </c>
       <c r="E100" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F100" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H100" t="s">
         <v>1421</v>
       </c>
-      <c r="G100" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -6625,8 +6970,11 @@
       <c r="F101" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -6645,8 +6993,14 @@
       <c r="F102" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -6665,8 +7019,14 @@
       <c r="F103" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -6680,16 +7040,19 @@
         <v>1352</v>
       </c>
       <c r="E104" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F104" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H104" t="s">
         <v>1421</v>
       </c>
-      <c r="G104" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -6706,10 +7069,16 @@
         <v>1408</v>
       </c>
       <c r="F105" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -6728,8 +7097,14 @@
       <c r="F106" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -6748,8 +7123,11 @@
       <c r="F107" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -6768,8 +7146,14 @@
       <c r="F108" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -6786,10 +7170,16 @@
         <v>1408</v>
       </c>
       <c r="F109" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -6808,8 +7198,14 @@
       <c r="F110" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -6828,8 +7224,11 @@
       <c r="F111" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -6848,8 +7247,14 @@
       <c r="F112" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -6868,8 +7273,14 @@
       <c r="F113" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -6886,10 +7297,16 @@
         <v>1408</v>
       </c>
       <c r="F114" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -6908,8 +7325,14 @@
       <c r="F115" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -6926,13 +7349,13 @@
         <v>1409</v>
       </c>
       <c r="F116" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H116" t="s">
         <v>1423</v>
       </c>
-      <c r="G116" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -6952,7 +7375,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -6972,7 +7395,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -6992,7 +7415,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -7012,7 +7435,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -7032,7 +7455,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -7052,7 +7475,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -7072,7 +7495,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -7092,7 +7515,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -7112,7 +7535,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -7132,7 +7555,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -7152,7 +7575,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -8414,10 +8837,10 @@
         <v>1412</v>
       </c>
       <c r="F194" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G194" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -8434,10 +8857,10 @@
         <v>1412</v>
       </c>
       <c r="F195" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G195" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -8454,10 +8877,10 @@
         <v>1412</v>
       </c>
       <c r="F196" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G196" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -8474,10 +8897,10 @@
         <v>1412</v>
       </c>
       <c r="F197" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G197" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -8494,10 +8917,10 @@
         <v>1412</v>
       </c>
       <c r="F198" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G198" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -8514,10 +8937,10 @@
         <v>1412</v>
       </c>
       <c r="F199" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G199" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -9691,6 +10114,9 @@
       <c r="I281" t="s">
         <v>1414</v>
       </c>
+      <c r="K281" t="s">
+        <v>1376</v>
+      </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
@@ -9778,6 +10204,9 @@
       <c r="I287" t="s">
         <v>1414</v>
       </c>
+      <c r="K287" t="s">
+        <v>1376</v>
+      </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
@@ -9864,6 +10293,9 @@
       </c>
       <c r="I293" t="s">
         <v>1414</v>
+      </c>
+      <c r="K293" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
